--- a/pred_ohlcv/54_21/2020-01-13 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 TMTG ohlcv.xlsx
@@ -12924,7 +12924,7 @@
         <v>-1853548.495063318</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-1839106.411063318</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-1839106.411063318</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-1813483.231063318</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-1742508.865063318</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-1751162.790063318</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-1712743.507063318</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-1712743.507063318</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>649408.0105243636</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>371178.0529243636</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>595275.3249243635</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>584775.5779243635</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>555265.8059243636</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>1116441.697124363</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>1116441.697124363</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-8469032.470832812</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-8269870.246032812</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-8322748.739632811</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-8350823.083032811</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-7131893.878832811</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-7133923.354832811</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-18469019.43660364</v>
       </c>
       <c r="H1144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-18470871.02360364</v>
       </c>
       <c r="H1145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-18468692.04960364</v>
       </c>
       <c r="H1146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-18468692.04960364</v>
       </c>
       <c r="H1147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-18468242.07360364</v>
       </c>
       <c r="H1148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-18469029.73060364</v>
       </c>
       <c r="H1149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-18469029.73060364</v>
       </c>
       <c r="H1150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-18464709.35960364</v>
       </c>
       <c r="H1152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-18464158.50460364</v>
       </c>
       <c r="H1153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-18465110.91360364</v>
       </c>
       <c r="H1154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-18463165.37290364</v>
       </c>
       <c r="H1158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-18460513.41590364</v>
       </c>
       <c r="H1159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-18463319.46190364</v>
       </c>
       <c r="H1160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-18460272.41790364</v>
       </c>
       <c r="H1161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-18462476.90690364</v>
       </c>
       <c r="H1162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-18467654.99590364</v>
       </c>
       <c r="H1165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-18467654.99590364</v>
       </c>
       <c r="H1166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-18469150.58890364</v>
       </c>
       <c r="H1169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-18452566.98390365</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-18451749.86490365</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-18453216.45690365</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-18453216.45690365</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-18453216.45690365</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-18453216.45690365</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-18453216.45690365</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-18449016.97790365</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-18446066.21890365</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-18442515.81290365</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-18442235.90490365</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-18439846.19690365</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-18437727.90190365</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-18440176.08590365</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-18437342.20090365</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-18438387.23190365</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-18440009.84390365</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-18441972.61690364</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-18439340.03390364</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-18446723.05190364</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-18446883.42790364</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-18446372.77790364</v>
       </c>
       <c r="H1208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-18433782.41090364</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-18445758.23490364</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-18458918.42890364</v>
       </c>
       <c r="H1211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-18458697.57090364</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-18460563.02490364</v>
       </c>
       <c r="H1213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-18460563.02490364</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-18460563.02490364</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-18457487.19690364</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-18457487.19690364</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-18458364.27390364</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-18457178.59990364</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-18461038.92290364</v>
       </c>
       <c r="H1220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-18461038.92290364</v>
       </c>
       <c r="H1221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-18461038.92290364</v>
       </c>
       <c r="H1222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-18460245.64890364</v>
       </c>
       <c r="H1223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-18460245.64890364</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-18457827.93790364</v>
       </c>
       <c r="H1225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>-18460690.05490364</v>
       </c>
       <c r="H1226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-18460560.87590364</v>
       </c>
       <c r="H1227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-18460560.87590364</v>
       </c>
       <c r="H1228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>-18459510.67290364</v>
       </c>
       <c r="H1229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>-18460998.19490364</v>
       </c>
       <c r="H1230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-18460998.19490364</v>
       </c>
       <c r="H1231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-18469646.55590364</v>
       </c>
       <c r="H1232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-18488211.63890364</v>
       </c>
       <c r="H1233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-18433463.88090364</v>
       </c>
       <c r="H1238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-18402598.84290364</v>
       </c>
       <c r="H1242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-18395082.17290364</v>
       </c>
       <c r="H1243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-18404608.13690364</v>
       </c>
       <c r="H1244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-18391580.81490364</v>
       </c>
       <c r="H1245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-18391580.81490364</v>
       </c>
       <c r="H1246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-18388230.21890364</v>
       </c>
       <c r="H1247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-18379033.01090364</v>
       </c>
       <c r="H1248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-18379033.01090364</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-18379033.01090364</v>
       </c>
       <c r="H1250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-18405988.14390364</v>
       </c>
       <c r="H1251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-18405988.14390364</v>
       </c>
       <c r="H1252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-18412665.82790364</v>
       </c>
       <c r="H1253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>-18539770.31370365</v>
       </c>
       <c r="H1254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-19299505.40790365</v>
       </c>
       <c r="H1255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>-19975629.93290364</v>
       </c>
       <c r="H1256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>-19932810.04890364</v>
       </c>
       <c r="H1257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>-19932810.04890364</v>
       </c>
       <c r="H1258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-20321312.20170365</v>
       </c>
       <c r="H1259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-20321312.20170365</v>
       </c>
       <c r="H1260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-20321312.20170365</v>
       </c>
       <c r="H1261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-20723375.09250364</v>
       </c>
       <c r="H1263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-20723375.09250364</v>
       </c>
       <c r="H1264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-20723375.09250364</v>
       </c>
       <c r="H1267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>-20042007.13430364</v>
       </c>
       <c r="H1275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 TMTG ohlcv.xlsx
@@ -12924,7 +12924,7 @@
         <v>-1853548.495063318</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-1839106.411063318</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-1839106.411063318</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-1813483.231063318</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-1742508.865063318</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-1751162.790063318</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-1712743.507063318</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-525708.2943756364</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-490753.8606756364</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-541686.5556756364</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>649408.0105243636</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>371178.0529243636</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>599177.2489243635</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>584775.5779243635</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>555265.8059243636</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>667218.4257243635</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>725987.0194243635</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>1116441.697124363</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>1116441.697124363</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>1116441.697124363</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>1116441.697124363</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>1116441.697124363</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>1116441.697124363</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>905277.3945243633</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>892592.4835243634</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>928366.0515243633</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>950180.4085243633</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>921327.2395243633</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>910973.4285243633</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>717780.272012045</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>665643.032012045</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>695494.169012045</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>695494.169012045</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>705403.516012045</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>649318.724012045</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>591740.8530120449</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>466709.3280120449</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>477845.1840120449</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>516584.1210120449</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>491718.1610120449</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>491718.1610120449</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>404383.3482120449</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>404383.3482120449</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>428563.7892120449</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>487628.2782120449</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>274338.9991120448</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>320929.2791120448</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>281661.3956120448</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-8469032.470832812</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-8269870.246032812</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-8322748.739632811</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-8350823.083032811</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-7131893.878832811</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-7133923.354832811</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-17465433.05309534</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-17463078.82209534</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-17465926.02609534</v>
       </c>
       <c r="H1120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-17458979.99909534</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-17458095.76309534</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-17458095.76309534</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-17461101.47809534</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-17460972.49509534</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-17713114.29399534</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-17713669.78799534</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-17713669.78799534</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-17713669.78799534</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-17713669.78799534</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-17712241.91699534</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-17707629.19999534</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-17707629.19999534</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-18449449.78980364</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>-18469481.33660364</v>
       </c>
       <c r="H1142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>-18467711.99060364</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-18469019.43660364</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-18470871.02360364</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-18468692.04960364</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-18468692.04960364</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-18468242.07360364</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-18469029.73060364</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-18469029.73060364</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-18464709.35960364</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-18464158.50460364</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-18465110.91360364</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-18463165.37290364</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-18460513.41590364</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-18463319.46190364</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-18460272.41790364</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-18462476.90690364</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-18467654.99590364</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-18467654.99590364</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-18469150.58890364</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>-19975629.93290364</v>
       </c>
       <c r="H1256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>-19932810.04890364</v>
       </c>
       <c r="H1257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-20321312.20170365</v>
       </c>
       <c r="H1259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-20321312.20170365</v>
       </c>
       <c r="H1261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-20723375.09250364</v>
       </c>
       <c r="H1267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
